--- a/Daily Attandance record/16 June/16_June.xlsx
+++ b/Daily Attandance record/16 June/16_June.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\16 June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98F4C7-F702-420F-AF85-5533D4F1357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85DB017-F1C0-4743-89BA-0AC925BDB003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="0" windowWidth="15960" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -5390,11 +5390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6637A86-CD0F-4C95-81BE-1312232C2532}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5427,7 +5426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5447,7 +5446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5467,7 +5466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5847,7 +5846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -6087,7 +6086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6187,7 +6186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6287,7 +6286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6507,7 +6506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6527,7 +6526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6567,7 +6566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6787,7 +6786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -7107,7 +7106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -7207,7 +7206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -7327,7 +7326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -7407,7 +7406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -7567,7 +7566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -7627,7 +7626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -7647,7 +7646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -7667,7 +7666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -7807,7 +7806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -7847,7 +7846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7907,7 +7906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7947,7 +7946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7967,7 +7966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -8027,7 +8026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -8067,7 +8066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -8087,7 +8086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -8187,7 +8186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -8207,7 +8206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -8327,7 +8326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -8347,7 +8346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -8367,7 +8366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -8487,7 +8486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -8527,7 +8526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -8547,7 +8546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8607,7 +8606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -8767,7 +8766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -8787,7 +8786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -8867,7 +8866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -9007,7 +9006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -9047,7 +9046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -9108,13 +9107,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:F185" xr:uid="{A6637A86-CD0F-4C95-81BE-1312232C2532}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>